--- a/squidpops-assay/MarineGEO_Squidpops-Assay_Data-Entry-Template.xlsx
+++ b/squidpops-assay/MarineGEO_Squidpops-Assay_Data-Entry-Template.xlsx
@@ -64,7 +64,7 @@
     <t>WorkbookBuildInfo</t>
   </si>
   <si>
-    <t>Created using MarinegeoTemplateBuilder v0.2.1 on 2019-01-04 13:23</t>
+    <t>Created using MarinegeoTemplateBuilder v0.2.1 on 2019-01-04 14:28</t>
   </si>
   <si>
     <t>site</t>
